--- a/docs/class-stats.xlsx
+++ b/docs/class-stats.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
@@ -244,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
@@ -421,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,10 +427,10 @@
   <dimension ref="B1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -450,7 +445,7 @@
     <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="23.25">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
@@ -466,7 +461,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,8 +496,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
